--- a/data/trans_orig/P32-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P32-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4420</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11415</v>
+        <v>11016</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01525243611374143</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003369398933769475</v>
+        <v>0.003389132945133537</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03938828608217287</v>
+        <v>0.03801096760576168</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7356</v>
+        <v>5895</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00771781351968784</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05743763425909595</v>
+        <v>0.04603373879256313</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -786,19 +786,19 @@
         <v>5409</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1867</v>
+        <v>1908</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12831</v>
+        <v>12429</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01294330945951986</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004467871688251968</v>
+        <v>0.004566421667822302</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0307059035881643</v>
+        <v>0.02974465605921134</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>285387</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>278392</v>
+        <v>278791</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288831</v>
+        <v>288825</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9847475638862586</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9606117139178264</v>
+        <v>0.9619890323942383</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9966306010662305</v>
+        <v>0.9966108670548665</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>123</v>
@@ -836,7 +836,7 @@
         <v>127076</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>120708</v>
+        <v>122169</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>128064</v>
@@ -845,7 +845,7 @@
         <v>0.9922821864803122</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9425623657409059</v>
+        <v>0.9539662612074368</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>412462</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>405040</v>
+        <v>405442</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>416004</v>
+        <v>415963</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9870566905404802</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9692940964118362</v>
+        <v>0.9702553439407887</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9955321283117481</v>
+        <v>0.9954335783321777</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>4021</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>983</v>
+        <v>1071</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9731</v>
+        <v>9440</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01801614433479805</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004402984987183516</v>
+        <v>0.004798454842806474</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04359413111039384</v>
+        <v>0.04229132757366749</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7563</v>
+        <v>5992</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01279729227546396</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04915212555674146</v>
+        <v>0.03894561604391479</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -1003,19 +1003,19 @@
         <v>5990</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2054</v>
+        <v>2122</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12636</v>
+        <v>12182</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.015886628923545</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005448410533194498</v>
+        <v>0.005628822572603423</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03350988981368497</v>
+        <v>0.03230635779470464</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>219190</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>213480</v>
+        <v>213771</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>222228</v>
+        <v>222140</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.981983855665202</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9564058688896065</v>
+        <v>0.9577086724263326</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9955970150128165</v>
+        <v>0.9952015451571935</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>148</v>
@@ -1053,7 +1053,7 @@
         <v>151893</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>146299</v>
+        <v>147870</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>153862</v>
@@ -1062,7 +1062,7 @@
         <v>0.987202707724536</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9508478744432568</v>
+        <v>0.9610543839560852</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1074,19 +1074,19 @@
         <v>371083</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>364437</v>
+        <v>364891</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>375019</v>
+        <v>374951</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.984113371076455</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9664901101863151</v>
+        <v>0.9676936422052953</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9945515894668056</v>
+        <v>0.9943711774273966</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11116</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5879</v>
+        <v>5932</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18898</v>
+        <v>19578</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03281364516915256</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01735457669402154</v>
+        <v>0.01751015583709828</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0557842703826169</v>
+        <v>0.05778937593510513</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5716</v>
+        <v>6291</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01848864160032651</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09252566988496624</v>
+        <v>0.101834691104559</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1220,19 +1220,19 @@
         <v>12259</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6598</v>
+        <v>6655</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21026</v>
+        <v>20869</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03060439209367894</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01647326637608965</v>
+        <v>0.01661542616285411</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05249319575443093</v>
+        <v>0.05210131869680503</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>327658</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>319876</v>
+        <v>319196</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>332895</v>
+        <v>332842</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9671863548308475</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9442157296173828</v>
+        <v>0.9422106240648951</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9826454233059785</v>
+        <v>0.9824898441629019</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>60</v>
@@ -1270,7 +1270,7 @@
         <v>60632</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>56058</v>
+        <v>55483</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>61774</v>
@@ -1279,7 +1279,7 @@
         <v>0.9815113583996735</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9074743301150338</v>
+        <v>0.8981653088954392</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>388289</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>379522</v>
+        <v>379679</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>393950</v>
+        <v>393893</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9693956079063211</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9475068042455692</v>
+        <v>0.947898681303195</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9835267336239104</v>
+        <v>0.9833845738371459</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>20722</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12731</v>
+        <v>12936</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31396</v>
+        <v>31218</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03094967092523719</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0190143438267511</v>
+        <v>0.01932123708238003</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0468924246248462</v>
+        <v>0.04662623840807757</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9058</v>
+        <v>8960</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01243656940048527</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04685190446251049</v>
+        <v>0.04634528581363174</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -1437,19 +1437,19 @@
         <v>23126</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15375</v>
+        <v>14572</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36425</v>
+        <v>33424</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02680179572298709</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01781888211575165</v>
+        <v>0.01688797855283204</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.042214080069829</v>
+        <v>0.03873662844888469</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>648817</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>638143</v>
+        <v>638321</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>656808</v>
+        <v>656603</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9690503290747629</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9531075753751538</v>
+        <v>0.9533737615919226</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9809856561732488</v>
+        <v>0.9806787629176201</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>184</v>
@@ -1487,7 +1487,7 @@
         <v>190922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>184268</v>
+        <v>184366</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>193326</v>
@@ -1496,7 +1496,7 @@
         <v>0.9875634305995147</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9531480955374898</v>
+        <v>0.9536547141863665</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1508,19 +1508,19 @@
         <v>839739</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>826440</v>
+        <v>829441</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>847490</v>
+        <v>848293</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9731982042770129</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.957785919930171</v>
+        <v>0.9612633715511153</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9821811178842483</v>
+        <v>0.9831120214471679</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>5703</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1953</v>
+        <v>1958</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14072</v>
+        <v>13350</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02639332075038619</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009040002688323065</v>
+        <v>0.009060302250258116</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06512972385360624</v>
+        <v>0.06178561708042427</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1633,19 +1633,19 @@
         <v>5798</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1978</v>
+        <v>2110</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12382</v>
+        <v>12535</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0412969974174095</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01408628997099049</v>
+        <v>0.01502975789995673</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08819260392135278</v>
+        <v>0.08928545150055706</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1654,19 +1654,19 @@
         <v>11501</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5436</v>
+        <v>5797</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19485</v>
+        <v>20017</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03226324672193511</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01524957498122404</v>
+        <v>0.01626170726413024</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05466126054046416</v>
+        <v>0.05615572375491004</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>210363</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>201994</v>
+        <v>202716</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>214113</v>
+        <v>214108</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9736066792496139</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9348702761463934</v>
+        <v>0.9382143829195753</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9909599973116768</v>
+        <v>0.9909396977497419</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>127</v>
@@ -1704,19 +1704,19 @@
         <v>134597</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>128013</v>
+        <v>127860</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>138417</v>
+        <v>138285</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9587030025825906</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9118073960786469</v>
+        <v>0.910714548499443</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9859137100290095</v>
+        <v>0.9849702421000432</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>332</v>
@@ -1725,19 +1725,19 @@
         <v>344960</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>336976</v>
+        <v>336444</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>351025</v>
+        <v>350664</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9677367532780649</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9453387394595359</v>
+        <v>0.9438442762450886</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9847504250187761</v>
+        <v>0.9837382927358697</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>5506</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2021</v>
+        <v>1988</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11413</v>
+        <v>12075</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03946971413474094</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01448287439459351</v>
+        <v>0.0142505913886589</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08180860478472934</v>
+        <v>0.08655383830978858</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5594</v>
+        <v>6283</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004315815498985226</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02576043055006659</v>
+        <v>0.02893469573228307</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1871,19 +1871,19 @@
         <v>6444</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2956</v>
+        <v>2766</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12946</v>
+        <v>13035</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01806616396452595</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008288434836932184</v>
+        <v>0.007754198625479885</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03629634800701597</v>
+        <v>0.03654663442282893</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>134005</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>128098</v>
+        <v>127436</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>137490</v>
+        <v>137523</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.960530285865259</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9181913952152709</v>
+        <v>0.9134461616902119</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9855171256054066</v>
+        <v>0.9857494086113412</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>220</v>
@@ -1921,7 +1921,7 @@
         <v>216224</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>211567</v>
+        <v>210878</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>217161</v>
@@ -1930,7 +1930,7 @@
         <v>0.9956841845010148</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9742395694499334</v>
+        <v>0.9710653042677169</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1942,19 +1942,19 @@
         <v>350228</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>343726</v>
+        <v>343637</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>353716</v>
+        <v>353906</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.981933836035474</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9637036519929841</v>
+        <v>0.9634533655771713</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9917115651630678</v>
+        <v>0.9922458013745201</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>51489</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39097</v>
+        <v>39094</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68973</v>
+        <v>66892</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02743302116507294</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02083079933440085</v>
+        <v>0.02082889154748578</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03674828820616799</v>
+        <v>0.03563954085151135</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -2067,19 +2067,19 @@
         <v>13239</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6696</v>
+        <v>7131</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23076</v>
+        <v>23416</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01479901423863817</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007485294750925677</v>
+        <v>0.007970974446670739</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02579550541961917</v>
+        <v>0.02617531041399257</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>62</v>
@@ -2088,19 +2088,19 @@
         <v>64728</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>50469</v>
+        <v>49066</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>84284</v>
+        <v>83612</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02335501622357863</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01821013809309022</v>
+        <v>0.01770393335403058</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03041123476691797</v>
+        <v>0.03016870303606109</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1825419</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1807935</v>
+        <v>1810016</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1837811</v>
+        <v>1837814</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.972566978834927</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9632517117938322</v>
+        <v>0.9643604591484888</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9791692006655992</v>
+        <v>0.9791711084525142</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>862</v>
@@ -2138,19 +2138,19 @@
         <v>881342</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>871505</v>
+        <v>871165</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>887885</v>
+        <v>887450</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9852009857613618</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9742044945803808</v>
+        <v>0.9738246895860075</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9925147052490745</v>
+        <v>0.9920290255533293</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2654</v>
@@ -2159,19 +2159,19 @@
         <v>2706762</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2687206</v>
+        <v>2687878</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2721021</v>
+        <v>2722424</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9766449837764214</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9695887652330826</v>
+        <v>0.9698312969639379</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.98178986190691</v>
+        <v>0.9822960666459694</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>16560</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9405</v>
+        <v>9146</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27569</v>
+        <v>27230</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05642753925864932</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03204914752297416</v>
+        <v>0.03116434730481386</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0939421162700335</v>
+        <v>0.09278590013257262</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2526,19 +2526,19 @@
         <v>4886</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12390</v>
+        <v>14959</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03275878914927432</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007873212957519414</v>
+        <v>0.007813562272784303</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08307745325134272</v>
+        <v>0.1003062734898007</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -2547,19 +2547,19 @@
         <v>21445</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12831</v>
+        <v>12567</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33626</v>
+        <v>35180</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04845222344951727</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02898986168933464</v>
+        <v>0.02839354789428803</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07597208023845556</v>
+        <v>0.07948419222393026</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>276907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>265898</v>
+        <v>266237</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>284062</v>
+        <v>284321</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9435724607413507</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9060578837299674</v>
+        <v>0.9072140998674268</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9679508524770261</v>
+        <v>0.9688356526951861</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>132</v>
@@ -2597,19 +2597,19 @@
         <v>144252</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>136748</v>
+        <v>134179</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>147964</v>
+        <v>147973</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9672412108507257</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9169225467486573</v>
+        <v>0.899693726510199</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9921267870424806</v>
+        <v>0.9921864377272157</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>390</v>
@@ -2618,19 +2618,19 @@
         <v>421160</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>408979</v>
+        <v>407425</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>429774</v>
+        <v>430038</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9515477765504827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9240279197615446</v>
+        <v>0.9205158077760713</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9710101383106654</v>
+        <v>0.9716064521057126</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>14559</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7548</v>
+        <v>7422</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25347</v>
+        <v>25442</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05746506087182978</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02979154001135293</v>
+        <v>0.02929719003307628</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1000453257427713</v>
+        <v>0.1004222041173092</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2743,19 +2743,19 @@
         <v>4886</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1131</v>
+        <v>1817</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12134</v>
+        <v>13286</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03428306958341147</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007939164047163053</v>
+        <v>0.0127491361501711</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08514429564114206</v>
+        <v>0.09322544276543955</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -2764,19 +2764,19 @@
         <v>19445</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11220</v>
+        <v>11194</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31470</v>
+        <v>30837</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0491193416387169</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02834298898925333</v>
+        <v>0.02827722677455819</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07949658366009567</v>
+        <v>0.07789812480968621</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>238792</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>228004</v>
+        <v>227909</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>245803</v>
+        <v>245929</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9425349391281702</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8999546742572287</v>
+        <v>0.899577795882691</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.970208459988647</v>
+        <v>0.9707028099669239</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>125</v>
@@ -2814,19 +2814,19 @@
         <v>137629</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>130381</v>
+        <v>129229</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>141384</v>
+        <v>140698</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9657169304165886</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9148557043588578</v>
+        <v>0.9067745572345606</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.992060835952837</v>
+        <v>0.9872508638498289</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>343</v>
@@ -2835,19 +2835,19 @@
         <v>376421</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>364396</v>
+        <v>365029</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>384646</v>
+        <v>384672</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9508806583612831</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9205034163399045</v>
+        <v>0.9221018751903139</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.971657011010747</v>
+        <v>0.9717227732254419</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>22138</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13646</v>
+        <v>14697</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33343</v>
+        <v>34408</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05702373673999477</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03514930817462517</v>
+        <v>0.03785794975187511</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08588775134626585</v>
+        <v>0.08862956163847753</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6446</v>
+        <v>6678</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02399373008943499</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08103786800998301</v>
+        <v>0.08395002215033551</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -2981,19 +2981,19 @@
         <v>24046</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15924</v>
+        <v>15707</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36953</v>
+        <v>37113</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05140668581636879</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0340416461727442</v>
+        <v>0.03357838945469614</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07899955739372776</v>
+        <v>0.07934098090614301</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>366082</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>354877</v>
+        <v>353812</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>374574</v>
+        <v>373523</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9429762632600053</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9141122486537343</v>
+        <v>0.9113704383615229</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9648506918253749</v>
+        <v>0.962142050248125</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>71</v>
@@ -3031,7 +3031,7 @@
         <v>77639</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>73102</v>
+        <v>72870</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>79548</v>
@@ -3040,7 +3040,7 @@
         <v>0.976006269910565</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9189621319900169</v>
+        <v>0.9160499778496645</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3052,19 +3052,19 @@
         <v>443722</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>430815</v>
+        <v>430655</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>451844</v>
+        <v>452061</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9485933141836312</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9210004426062723</v>
+        <v>0.9206590190938571</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9659583538272558</v>
+        <v>0.966421610545304</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>49191</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36794</v>
+        <v>37178</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66007</v>
+        <v>64735</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07442624997293844</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05566893905639223</v>
+        <v>0.05625070261384302</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09986895843179394</v>
+        <v>0.09794345973580552</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -3177,19 +3177,19 @@
         <v>2987</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>979</v>
+        <v>962</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8077</v>
+        <v>7881</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01291910855916017</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004235729353255728</v>
+        <v>0.004159666333228096</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03493224260173249</v>
+        <v>0.03408706839191254</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -3198,19 +3198,19 @@
         <v>52178</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38931</v>
+        <v>37669</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>69263</v>
+        <v>68288</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05848576384452381</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04363729248047837</v>
+        <v>0.04222306438318626</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07763604680656139</v>
+        <v>0.07654284500211395</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>611748</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>594932</v>
+        <v>596204</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>624145</v>
+        <v>623761</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9255737500270615</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9001310415682061</v>
+        <v>0.9020565402641945</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9443310609436077</v>
+        <v>0.9437492973861571</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>208</v>
@@ -3248,19 +3248,19 @@
         <v>228228</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>223138</v>
+        <v>223334</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>230236</v>
+        <v>230253</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9870808914408399</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9650677573982673</v>
+        <v>0.9659129316080871</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9957642706467442</v>
+        <v>0.9958403336667718</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>776</v>
@@ -3269,19 +3269,19 @@
         <v>839976</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>822891</v>
+        <v>823866</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>853223</v>
+        <v>854485</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9415142361554761</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9223639531934388</v>
+        <v>0.9234571549978863</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9563627075195217</v>
+        <v>0.9577769356168139</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>15090</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9107</v>
+        <v>8511</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24056</v>
+        <v>24160</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04961677355269461</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02994537709575739</v>
+        <v>0.02798503945278547</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0791016703859098</v>
+        <v>0.07944365622200583</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3394,19 +3394,19 @@
         <v>4156</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9728</v>
+        <v>9560</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02258093931985531</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005829617980102094</v>
+        <v>0.005788957092478358</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05285264656223225</v>
+        <v>0.05193814649694</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -3415,19 +3415,19 @@
         <v>19246</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11862</v>
+        <v>11740</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29721</v>
+        <v>28256</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0394231264733436</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02429795278629026</v>
+        <v>0.02404858747946172</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06088101591925435</v>
+        <v>0.05787873116931821</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>289031</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>280065</v>
+        <v>279961</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>295014</v>
+        <v>295610</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9503832264473054</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9208983296140902</v>
+        <v>0.9205563437779941</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9700546229042426</v>
+        <v>0.9720149605472145</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>164</v>
@@ -3465,19 +3465,19 @@
         <v>179912</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>174340</v>
+        <v>174508</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>182995</v>
+        <v>183002</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9774190606801447</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9471473534377677</v>
+        <v>0.9480618535030602</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9941703820198979</v>
+        <v>0.9942110429075216</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>443</v>
@@ -3486,19 +3486,19 @@
         <v>468943</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>458468</v>
+        <v>459933</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>476327</v>
+        <v>476449</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9605768735266564</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9391189840807457</v>
+        <v>0.9421212688306818</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9757020472137096</v>
+        <v>0.9759514125205382</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>20105</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12758</v>
+        <v>12981</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30425</v>
+        <v>30676</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1440400602387505</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09139890074949313</v>
+        <v>0.09299690630621742</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2179748647650045</v>
+        <v>0.2197686601842887</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -3611,19 +3611,19 @@
         <v>3882</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1037</v>
+        <v>955</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9768</v>
+        <v>9725</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01474514730394529</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003938182482800462</v>
+        <v>0.003628297149250153</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03709722723191551</v>
+        <v>0.03693601882177094</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -3632,19 +3632,19 @@
         <v>23988</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15967</v>
+        <v>15212</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36931</v>
+        <v>34286</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05954052994730808</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03963160999939259</v>
+        <v>0.03775924917687568</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09166670681364512</v>
+        <v>0.08510326100762305</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>119477</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>109157</v>
+        <v>108906</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>126824</v>
+        <v>126601</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8559599397612495</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7820251352349955</v>
+        <v>0.7802313398157126</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9086010992505069</v>
+        <v>0.9070030936937826</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>244</v>
@@ -3682,19 +3682,19 @@
         <v>259418</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>253532</v>
+        <v>253575</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>262263</v>
+        <v>262345</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9852548526960547</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9629027727680842</v>
+        <v>0.9630639811782291</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9960618175171996</v>
+        <v>0.9963717028507498</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>366</v>
@@ -3703,19 +3703,19 @@
         <v>378893</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>365950</v>
+        <v>368595</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>386914</v>
+        <v>387669</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9404594700526919</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9083332931863545</v>
+        <v>0.9148967389923772</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.960368390000607</v>
+        <v>0.9622407508231244</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>137642</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>114579</v>
+        <v>116493</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>162931</v>
+        <v>164452</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06748231133077552</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05617505666638573</v>
+        <v>0.05711321992818184</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07988074296812979</v>
+        <v>0.08062639836874189</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -3828,19 +3828,19 @@
         <v>22706</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14244</v>
+        <v>13768</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35404</v>
+        <v>34812</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02162922052241635</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01356837738883439</v>
+        <v>0.013115065822229</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03372542226901754</v>
+        <v>0.03316107978998131</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>147</v>
@@ -3849,19 +3849,19 @@
         <v>160348</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>138070</v>
+        <v>136704</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>188262</v>
+        <v>187952</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05190166710194435</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04469046371014141</v>
+        <v>0.04424853938299118</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06093677067024072</v>
+        <v>0.06083661969048027</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>1902038</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1876749</v>
+        <v>1875228</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1925101</v>
+        <v>1923187</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9325176886692245</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9201192570318705</v>
+        <v>0.9193736016312581</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9438249433336143</v>
+        <v>0.9428867800718181</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>944</v>
@@ -3899,19 +3899,19 @@
         <v>1027078</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1014380</v>
+        <v>1014972</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1035540</v>
+        <v>1036016</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9783707794775837</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9662745777309819</v>
+        <v>0.9668389202100184</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9864316226111653</v>
+        <v>0.9868849341777707</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2735</v>
@@ -3920,19 +3920,19 @@
         <v>2929115</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2901201</v>
+        <v>2901511</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2951393</v>
+        <v>2952759</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9480983328980557</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9390632293297593</v>
+        <v>0.9391633803095197</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9553095362898586</v>
+        <v>0.9557514606170088</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>17378</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10017</v>
+        <v>10641</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27978</v>
+        <v>28140</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06017943141324848</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03468626574254542</v>
+        <v>0.03684930509068253</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09688290753457818</v>
+        <v>0.09744678687778491</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -4287,19 +4287,19 @@
         <v>6939</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2843</v>
+        <v>2824</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14943</v>
+        <v>13932</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04507750796202837</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01846663619726734</v>
+        <v>0.01834235220528925</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09707226896134039</v>
+        <v>0.09050505590087378</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -4308,19 +4308,19 @@
         <v>24318</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15356</v>
+        <v>15035</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36691</v>
+        <v>35542</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05492823836644744</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03468658191433796</v>
+        <v>0.03396093994940137</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08287772696397765</v>
+        <v>0.08028028493609549</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>271400</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>260800</v>
+        <v>260638</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>278761</v>
+        <v>278137</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9398205685867516</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9031170924654218</v>
+        <v>0.9025532131222151</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9653137342574547</v>
+        <v>0.9631506949093175</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>138</v>
@@ -4358,19 +4358,19 @@
         <v>147002</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>138998</v>
+        <v>140009</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>151098</v>
+        <v>151117</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9549224920379716</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9029277310386599</v>
+        <v>0.9094949440991262</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9815333638027327</v>
+        <v>0.9816576477947108</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>390</v>
@@ -4379,19 +4379,19 @@
         <v>418400</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>406027</v>
+        <v>407176</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>427362</v>
+        <v>427683</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9450717616335526</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9171222730360225</v>
+        <v>0.9197197150639045</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9653134180856621</v>
+        <v>0.9660390600505986</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>11227</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5881</v>
+        <v>5901</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19925</v>
+        <v>18809</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04697241068853263</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02460675963421955</v>
+        <v>0.02469079236461578</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08336461711451612</v>
+        <v>0.0786931733157562</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4504,19 +4504,19 @@
         <v>7325</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3106</v>
+        <v>3172</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14741</v>
+        <v>14574</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03844059700751705</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01630048414531507</v>
+        <v>0.01664753171703538</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0773614585659252</v>
+        <v>0.07648522255743186</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -4525,19 +4525,19 @@
         <v>18552</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11056</v>
+        <v>11408</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27666</v>
+        <v>27812</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04318777946783321</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02573719000913554</v>
+        <v>0.02655794127971943</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06440671718720581</v>
+        <v>0.06474603931091451</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>227784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>219086</v>
+        <v>220202</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>233130</v>
+        <v>233110</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9530275893114674</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9166353828854852</v>
+        <v>0.9213068266842438</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9753932403657806</v>
+        <v>0.9753092076353843</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>171</v>
@@ -4575,19 +4575,19 @@
         <v>183223</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>175807</v>
+        <v>175974</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>187442</v>
+        <v>187376</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.961559402992483</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9226385414340749</v>
+        <v>0.9235147774425682</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.983699515854685</v>
+        <v>0.9833524682829645</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>383</v>
@@ -4596,19 +4596,19 @@
         <v>411007</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>401893</v>
+        <v>401747</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>418503</v>
+        <v>418151</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9568122205321667</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9355932828127942</v>
+        <v>0.935253960689086</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9742628099908645</v>
+        <v>0.9734420587202807</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>11899</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6233</v>
+        <v>6361</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20663</v>
+        <v>20500</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03570701130055139</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01870444769423856</v>
+        <v>0.01908874428012575</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06200634600781305</v>
+        <v>0.06151866080152081</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -4721,19 +4721,19 @@
         <v>3222</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8552</v>
+        <v>7678</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05698990712001965</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01744694102565479</v>
+        <v>0.017477820890559</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1512718292397602</v>
+        <v>0.1358057209923144</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -4742,19 +4742,19 @@
         <v>15121</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8420</v>
+        <v>8787</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23403</v>
+        <v>25256</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03879394457988772</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02160358657310722</v>
+        <v>0.02254433551487301</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0600430159330267</v>
+        <v>0.06479656598323573</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>321337</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>312573</v>
+        <v>312736</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>327003</v>
+        <v>326875</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9642929886994486</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.937993653992187</v>
+        <v>0.9384813391984793</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9812955523057614</v>
+        <v>0.9809112557198744</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>49</v>
@@ -4792,19 +4792,19 @@
         <v>53311</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47981</v>
+        <v>48855</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55547</v>
+        <v>55545</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9430100928799804</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8487281707602398</v>
+        <v>0.8641942790076856</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9825530589743452</v>
+        <v>0.982522179109441</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>353</v>
@@ -4813,19 +4813,19 @@
         <v>374648</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>366366</v>
+        <v>364513</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>381349</v>
+        <v>380982</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9612060554201123</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9399569840669734</v>
+        <v>0.9352034340167643</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9783964134268928</v>
+        <v>0.977455664485127</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>33895</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22561</v>
+        <v>22607</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47247</v>
+        <v>46515</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05161280187148537</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0343540316149645</v>
+        <v>0.03442405985621246</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07194436529559947</v>
+        <v>0.07082959978825917</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -4938,19 +4938,19 @@
         <v>6824</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3018</v>
+        <v>2805</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14269</v>
+        <v>13625</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02300355362467617</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01017288472449461</v>
+        <v>0.009456075224578886</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04809730137412817</v>
+        <v>0.04592640712287651</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -4959,19 +4959,19 @@
         <v>40719</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27912</v>
+        <v>28831</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54993</v>
+        <v>54403</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04271046609980781</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02927642119856312</v>
+        <v>0.0302408693662966</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05768254122437356</v>
+        <v>0.05706315685079883</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>622821</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>609469</v>
+        <v>610201</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>634155</v>
+        <v>634109</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9483871981285146</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9280556347044004</v>
+        <v>0.9291704002117407</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9656459683850354</v>
+        <v>0.965575940143787</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>283</v>
@@ -5009,19 +5009,19 @@
         <v>289839</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>282394</v>
+        <v>283038</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>293645</v>
+        <v>293858</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9769964463753238</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.951902698625871</v>
+        <v>0.9540735928771237</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9898271152755054</v>
+        <v>0.9905439247754211</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>880</v>
@@ -5030,19 +5030,19 @@
         <v>912660</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>898386</v>
+        <v>898976</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>925467</v>
+        <v>924548</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9572895339001922</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9423174587756267</v>
+        <v>0.9429368431492012</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9707235788014371</v>
+        <v>0.9697591306337033</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>17154</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9753</v>
+        <v>10396</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27330</v>
+        <v>27042</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05436369711969789</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03090941011106243</v>
+        <v>0.03294725924664248</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08661473095995477</v>
+        <v>0.08570056081925813</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6549</v>
+        <v>6977</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01028781277733996</v>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03448052504823849</v>
+        <v>0.03673721734011361</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -5176,19 +5176,19 @@
         <v>19108</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11460</v>
+        <v>11682</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28874</v>
+        <v>29887</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03780246526430949</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02267152540886858</v>
+        <v>0.02311174873574499</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0571242788625213</v>
+        <v>0.05912849417024933</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>298384</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>288208</v>
+        <v>288496</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>305785</v>
+        <v>305142</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9456363028803021</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9133852690400448</v>
+        <v>0.9142994391807417</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9690905898889376</v>
+        <v>0.9670527407533575</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>180</v>
@@ -5226,7 +5226,7 @@
         <v>187970</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>183375</v>
+        <v>182947</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>189924</v>
@@ -5235,7 +5235,7 @@
         <v>0.9897121872226601</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9655194749517605</v>
+        <v>0.9632627826598863</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -5247,19 +5247,19 @@
         <v>486354</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>476588</v>
+        <v>475575</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>494002</v>
+        <v>493780</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9621975347356905</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9428757211374784</v>
+        <v>0.9408715058297507</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9773284745911314</v>
+        <v>0.976888251264255</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>13617</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7809</v>
+        <v>7423</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22842</v>
+        <v>23190</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08461578711259085</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0485235597935542</v>
+        <v>0.04612362818763632</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1419338864095456</v>
+        <v>0.1440983737881492</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -5372,19 +5372,19 @@
         <v>11036</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5588</v>
+        <v>5570</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19813</v>
+        <v>19288</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04314940683991188</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02184882677100617</v>
+        <v>0.02177915444018146</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07746502868842967</v>
+        <v>0.07541361328131414</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -5393,19 +5393,19 @@
         <v>24654</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16270</v>
+        <v>16171</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37025</v>
+        <v>36371</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05916420783876443</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03904403507422662</v>
+        <v>0.03880771191112556</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08885429818834455</v>
+        <v>0.08728419890055736</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>147316</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>138091</v>
+        <v>137743</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>153124</v>
+        <v>153510</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9153842128874091</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8580661135904546</v>
+        <v>0.8559016262118508</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.951476440206446</v>
+        <v>0.9538763718123637</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>235</v>
@@ -5443,19 +5443,19 @@
         <v>244728</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>235951</v>
+        <v>236476</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>250176</v>
+        <v>250194</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9568505931600881</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9225349713115703</v>
+        <v>0.9245863867186858</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9781511732289938</v>
+        <v>0.9782208455598185</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>378</v>
@@ -5464,19 +5464,19 @@
         <v>392043</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>379672</v>
+        <v>380326</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>400427</v>
+        <v>400526</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9408357921612356</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9111457018116554</v>
+        <v>0.9127158010994426</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9609559649257733</v>
+        <v>0.9611922880888744</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>105171</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>83786</v>
+        <v>85735</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>126382</v>
+        <v>126737</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05273788977492886</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04201450160659529</v>
+        <v>0.04299198273708546</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06337460894534534</v>
+        <v>0.06355244356145975</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -5589,19 +5589,19 @@
         <v>37300</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27188</v>
+        <v>26880</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50126</v>
+        <v>51364</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03262289195456846</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02377868730981108</v>
+        <v>0.0235095194942786</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04384011615651684</v>
+        <v>0.04492280028436867</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>130</v>
@@ -5610,19 +5610,19 @@
         <v>142471</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>120604</v>
+        <v>118121</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>167214</v>
+        <v>168664</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04540774639722016</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03843859455892563</v>
+        <v>0.03764714817035992</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05329397810830451</v>
+        <v>0.0537561094929815</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>1889041</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1867830</v>
+        <v>1867475</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1910426</v>
+        <v>1908477</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9472621102250711</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9366253910546545</v>
+        <v>0.9364475564385403</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9579854983934046</v>
+        <v>0.9570080172629145</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1056</v>
@@ -5660,19 +5660,19 @@
         <v>1106073</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1093247</v>
+        <v>1092009</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1116185</v>
+        <v>1116493</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9673771080454315</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9561598838434832</v>
+        <v>0.9550771997156315</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9762213126901887</v>
+        <v>0.9764904805057214</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2849</v>
@@ -5681,19 +5681,19 @@
         <v>2995114</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2970371</v>
+        <v>2968921</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3016981</v>
+        <v>3019464</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9545922536027799</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9467060218916963</v>
+        <v>0.9462438905070182</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9615614054410744</v>
+        <v>0.9623528518296395</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>18638</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10958</v>
+        <v>11658</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28730</v>
+        <v>30122</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06140198799144603</v>
+        <v>0.06140198799144606</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0361024997965864</v>
+        <v>0.03840796876360478</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09464948150114351</v>
+        <v>0.09923828412293473</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -6048,19 +6048,19 @@
         <v>6159</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2753</v>
+        <v>2843</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13158</v>
+        <v>12452</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03510855902444868</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01569372405569426</v>
+        <v>0.0162051730694132</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07501072535339874</v>
+        <v>0.07098631128022398</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -6069,19 +6069,19 @@
         <v>24796</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16333</v>
+        <v>16079</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36122</v>
+        <v>36108</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05177211953721616</v>
+        <v>0.05177211953721617</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03410161218771025</v>
+        <v>0.0335704939175359</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07541841770852234</v>
+        <v>0.07539040582748541</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>284899</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>274807</v>
+        <v>273415</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292579</v>
+        <v>291879</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9385980120085538</v>
+        <v>0.938598012008554</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9053505184988565</v>
+        <v>0.9007617158770651</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9638975002034137</v>
+        <v>0.9615920312363951</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>238</v>
@@ -6119,19 +6119,19 @@
         <v>169255</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>162256</v>
+        <v>162962</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>172661</v>
+        <v>172571</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9648914409755512</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9249892746466013</v>
+        <v>0.929013688719776</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9843062759443058</v>
+        <v>0.9837948269305868</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>523</v>
@@ -6140,19 +6140,19 @@
         <v>454154</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>442828</v>
+        <v>442842</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>462617</v>
+        <v>462871</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9482278804627838</v>
+        <v>0.9482278804627839</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9245815822914767</v>
+        <v>0.9246095941725143</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9658983878122896</v>
+        <v>0.9664295060824641</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>8954</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4340</v>
+        <v>4187</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16519</v>
+        <v>16698</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03985126514631426</v>
+        <v>0.03985126514631425</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01931341806784792</v>
+        <v>0.01863370806079935</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07352080240057254</v>
+        <v>0.07431399376712232</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -6265,19 +6265,19 @@
         <v>6370</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2863</v>
+        <v>2955</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11992</v>
+        <v>12148</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04392312289696412</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01974332326854289</v>
+        <v>0.02038025756571104</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08269386293240941</v>
+        <v>0.08377258562224396</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -6286,19 +6286,19 @@
         <v>15324</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9055</v>
+        <v>8703</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24187</v>
+        <v>24154</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04144842536349475</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02449363876895596</v>
+        <v>0.02354039539452565</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06542266769133717</v>
+        <v>0.06533395725522917</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>215737</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>208172</v>
+        <v>207993</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>220351</v>
+        <v>220504</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9601487348536858</v>
+        <v>0.9601487348536857</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9264791975994274</v>
+        <v>0.9256860062328773</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9806865819321521</v>
+        <v>0.9813662919392007</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>199</v>
@@ -6336,19 +6336,19 @@
         <v>138645</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>133023</v>
+        <v>132867</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>142152</v>
+        <v>142060</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9560768771030359</v>
+        <v>0.9560768771030357</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9173061370675908</v>
+        <v>0.9162274143777548</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9802566767314572</v>
+        <v>0.9796197424342886</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>415</v>
@@ -6357,19 +6357,19 @@
         <v>354382</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>345519</v>
+        <v>345552</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>360651</v>
+        <v>361003</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9585515746365053</v>
+        <v>0.9585515746365051</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9345773323086628</v>
+        <v>0.9346660427447706</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9755063612310441</v>
+        <v>0.9764596046054744</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>15834</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9522</v>
+        <v>9317</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26057</v>
+        <v>25518</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06941386147974643</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04174434869008159</v>
+        <v>0.0408463487687914</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1142288017232378</v>
+        <v>0.1118677083612355</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4186</v>
+        <v>3980</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01731066321592801</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08988909214746685</v>
+        <v>0.08547769057975249</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -6503,19 +6503,19 @@
         <v>16640</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9435</v>
+        <v>9259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26857</v>
+        <v>26278</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06058093456542295</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03435154874310042</v>
+        <v>0.03370748902998968</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09777843775612885</v>
+        <v>0.0956705997077712</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>212275</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>202052</v>
+        <v>202591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>218587</v>
+        <v>218792</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9305861385202537</v>
+        <v>0.9305861385202534</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8857711982767623</v>
+        <v>0.8881322916387647</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9582556513099183</v>
+        <v>0.9591536512312087</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>67</v>
@@ -6553,16 +6553,16 @@
         <v>45759</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>42379</v>
+        <v>42585</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>46565</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9826893367840721</v>
+        <v>0.9826893367840719</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9101109078525332</v>
+        <v>0.9145223094202479</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -6574,19 +6574,19 @@
         <v>258034</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>247817</v>
+        <v>248396</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>265239</v>
+        <v>265415</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9394190654345771</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9022215622438715</v>
+        <v>0.9043294002922287</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9656484512568995</v>
+        <v>0.9662925109700101</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>32000</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20721</v>
+        <v>22214</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45642</v>
+        <v>46068</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05894332223152707</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03816839581190486</v>
+        <v>0.04091717373186519</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08407233923353329</v>
+        <v>0.08485684042826555</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -6699,19 +6699,19 @@
         <v>5666</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1677</v>
+        <v>2090</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13758</v>
+        <v>16031</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0246637816142979</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007298078421517649</v>
+        <v>0.009095574758423323</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05988533006464346</v>
+        <v>0.069780515999249</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -6720,19 +6720,19 @@
         <v>37666</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25991</v>
+        <v>25636</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55393</v>
+        <v>54811</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04875054800747551</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03363926050140452</v>
+        <v>0.03317990191392547</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07169469083035143</v>
+        <v>0.07094064422211938</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>510891</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>497249</v>
+        <v>496823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>522170</v>
+        <v>520677</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9410566777684731</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9159276607664667</v>
+        <v>0.9151431595717343</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.961831604188095</v>
+        <v>0.9590828262681348</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>293</v>
@@ -6770,19 +6770,19 @@
         <v>224069</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>215977</v>
+        <v>213704</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>228058</v>
+        <v>227645</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9753362183857021</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9401146699353564</v>
+        <v>0.9302194840007486</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9927019215784822</v>
+        <v>0.9909044252415767</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>787</v>
@@ -6791,19 +6791,19 @@
         <v>734960</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>717233</v>
+        <v>717815</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>746635</v>
+        <v>746990</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9512494519925245</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9283053091696484</v>
+        <v>0.9290593557778808</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9663607394985955</v>
+        <v>0.9668200980860746</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>23244</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15333</v>
+        <v>15344</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35683</v>
+        <v>35185</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.090169315894711</v>
+        <v>0.09016931589471101</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05948059564886096</v>
+        <v>0.05952409551104441</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1384252029089645</v>
+        <v>0.1364923274630512</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -6916,19 +6916,19 @@
         <v>5014</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2336</v>
+        <v>2426</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9411</v>
+        <v>9872</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03271861706003663</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01524347803032706</v>
+        <v>0.01583217306309414</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0614130951546169</v>
+        <v>0.0644160289281743</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -6937,19 +6937,19 @@
         <v>28258</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19582</v>
+        <v>19480</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39573</v>
+        <v>40079</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06874922730078675</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04764140746776199</v>
+        <v>0.0473925300764752</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09627948914804679</v>
+        <v>0.0975098654909221</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>234533</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>222094</v>
+        <v>222592</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>242444</v>
+        <v>242433</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9098306841052889</v>
+        <v>0.909830684105289</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8615747970910352</v>
+        <v>0.8635076725369484</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9405194043511392</v>
+        <v>0.9404759044889555</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>207</v>
@@ -6987,19 +6987,19 @@
         <v>148234</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>143837</v>
+        <v>143376</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>150912</v>
+        <v>150822</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9672813829399632</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9385869048453833</v>
+        <v>0.9355839710718258</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9847565219696731</v>
+        <v>0.9841678269369059</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>421</v>
@@ -7008,19 +7008,19 @@
         <v>382767</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>371452</v>
+        <v>370946</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>391443</v>
+        <v>391545</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9312507726992133</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.903720510851953</v>
+        <v>0.9024901345090781</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.952358592532238</v>
+        <v>0.9526074699235247</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>7943</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1425</v>
+        <v>1521</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19999</v>
+        <v>19670</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.09252588054840001</v>
+        <v>0.0925258805484</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01659668389609265</v>
+        <v>0.01772375980146096</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2329825258296347</v>
+        <v>0.2291414330976483</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -7136,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10103</v>
+        <v>11070</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01758503354373064</v>
@@ -7145,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07988392156035794</v>
+        <v>0.08753337851892518</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -7154,19 +7154,19 @@
         <v>10166</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3007</v>
+        <v>2948</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23616</v>
+        <v>24185</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04788471009428709</v>
+        <v>0.0478847100942871</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0141626207486075</v>
+        <v>0.01388627250748122</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1112329913570625</v>
+        <v>0.1139121954825419</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>77898</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>65842</v>
+        <v>66171</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>84416</v>
+        <v>84320</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9074741194516001</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7670174741703655</v>
+        <v>0.7708585669023519</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9834033161039072</v>
+        <v>0.982276240198539</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>143</v>
@@ -7204,16 +7204,16 @@
         <v>124247</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>116368</v>
+        <v>115401</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>126471</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9824149664562694</v>
+        <v>0.9824149664562692</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.920116078439642</v>
+        <v>0.912466621481074</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -7225,19 +7225,19 @@
         <v>202146</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>188696</v>
+        <v>188127</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>209305</v>
+        <v>209364</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9521152899057128</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.888767008642938</v>
+        <v>0.8860878045174578</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9858373792513926</v>
+        <v>0.9861137274925188</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>106612</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>86664</v>
+        <v>86324</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>129300</v>
+        <v>130435</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06489458839046418</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05275218273611335</v>
+        <v>0.05254542625891736</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07870500625156017</v>
+        <v>0.07939577571160231</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -7350,19 +7350,19 @@
         <v>26238</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16751</v>
+        <v>17190</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37995</v>
+        <v>38464</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02993709470066395</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01911277880834345</v>
+        <v>0.01961277034584991</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04335071837621476</v>
+        <v>0.04388652723146146</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>128</v>
@@ -7371,19 +7371,19 @@
         <v>132850</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>109737</v>
+        <v>109340</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>161466</v>
+        <v>161641</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05273308419357303</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04355867076521501</v>
+        <v>0.04340118087128161</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06409196143317945</v>
+        <v>0.06416118395734303</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>1536234</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1513546</v>
+        <v>1512411</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1556182</v>
+        <v>1556522</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9351054116095358</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9212949937484397</v>
+        <v>0.9206042242883977</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9472478172638865</v>
+        <v>0.9474545737410827</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1147</v>
@@ -7421,19 +7421,19 @@
         <v>850209</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>838452</v>
+        <v>837983</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>859696</v>
+        <v>859257</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9700629052993359</v>
+        <v>0.970062905299336</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9566492816237854</v>
+        <v>0.9561134727685383</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9808872211916567</v>
+        <v>0.9803872296541498</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2608</v>
@@ -7442,19 +7442,19 @@
         <v>2386443</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2357827</v>
+        <v>2357652</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2409556</v>
+        <v>2409953</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9472669158064272</v>
+        <v>0.947266915806427</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.93590803856682</v>
+        <v>0.9358388160426572</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9564413292347846</v>
+        <v>0.9565988191287184</v>
       </c>
     </row>
     <row r="24">
